--- a/src/Avistamientos/Excels/dfAvistamientos.xlsx
+++ b/src/Avistamientos/Excels/dfAvistamientos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -394,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +402,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -426,7 +426,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -434,7 +434,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -442,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -466,7 +466,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -482,7 +482,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -490,7 +490,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -506,7 +506,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -514,7 +514,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -522,7 +522,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -530,7 +530,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -538,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -554,7 +554,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -562,7 +562,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +570,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +594,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +602,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +618,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +626,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +634,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +642,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +650,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>233</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +666,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +674,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +682,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +690,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +698,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +706,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +714,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +722,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +730,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +738,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +746,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>200</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +754,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +762,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +770,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>659</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +778,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +786,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +794,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>437</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +810,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +818,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +826,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +834,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +842,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +850,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -858,7 +858,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -866,7 +866,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -874,7 +874,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>164</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -882,7 +882,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -890,7 +890,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -898,7 +898,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -906,7 +906,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -914,7 +914,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -922,7 +922,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -930,7 +930,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -946,7 +946,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -954,7 +954,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -962,7 +962,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -970,7 +970,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -978,7 +978,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -994,7 +994,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1002,7 +1002,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>413</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81">
@@ -1010,7 +1010,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82">
@@ -1018,7 +1018,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83">
@@ -1026,7 +1026,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84">
@@ -1034,7 +1034,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -1042,7 +1042,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -1050,7 +1050,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87">
@@ -1058,7 +1058,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>700</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -1066,7 +1066,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7000</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89">
@@ -1074,7 +1074,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="90">
@@ -1082,7 +1082,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1021</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -1090,7 +1090,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92">
@@ -1098,7 +1098,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -1106,7 +1106,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94">
@@ -1114,7 +1114,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
@@ -1122,7 +1122,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96">
@@ -1130,7 +1130,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1200</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
@@ -1138,7 +1138,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98">
@@ -1146,7 +1146,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -1154,7 +1154,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>471</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -1162,7 +1162,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101">
@@ -1170,7 +1170,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="102">
@@ -1178,7 +1178,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -1186,7 +1186,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -1194,7 +1194,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
@@ -1202,7 +1202,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106">
@@ -1210,7 +1210,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107">
@@ -1218,7 +1218,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108">
@@ -1226,7 +1226,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -1234,7 +1234,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -1242,7 +1242,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -1250,7 +1250,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
@@ -1258,7 +1258,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -1266,7 +1266,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -1274,7 +1274,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -1282,7 +1282,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -1290,7 +1290,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1298,7 +1298,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1050</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -1306,7 +1306,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
@@ -1314,7 +1314,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
@@ -1322,7 +1322,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -1330,7 +1330,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1338,7 +1338,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -1346,7 +1346,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1354,7 +1354,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1370,7 +1370,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -1378,7 +1378,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1386,7 +1386,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1394,7 +1394,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1402,7 +1402,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -1410,7 +1410,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -1418,7 +1418,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
@@ -1426,7 +1426,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134">
@@ -1442,7 +1442,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -1450,7 +1450,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>700</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
@@ -1458,7 +1458,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138">
@@ -1466,7 +1466,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139">
@@ -1482,7 +1482,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="141">
@@ -1490,7 +1490,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142">
@@ -1498,7 +1498,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -1506,7 +1506,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
@@ -1514,7 +1514,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
@@ -1522,7 +1522,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -1530,7 +1530,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -1538,7 +1538,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
@@ -1546,7 +1546,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -1554,7 +1554,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
@@ -1562,7 +1562,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151">
@@ -1570,7 +1570,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
@@ -1578,7 +1578,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
@@ -1586,7 +1586,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -1594,7 +1594,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
@@ -1602,7 +1602,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1610,7 +1610,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -1618,7 +1618,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1626,7 +1626,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -1634,7 +1634,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
@@ -1642,7 +1642,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161">
@@ -1650,7 +1650,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -1658,7 +1658,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>73</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
@@ -1666,7 +1666,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -1674,7 +1674,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -1682,7 +1682,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
@@ -1690,7 +1690,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167">
@@ -1698,7 +1698,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168">
@@ -1706,7 +1706,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -1714,7 +1714,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -1722,7 +1722,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1730,7 +1730,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -1738,7 +1738,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173">
@@ -1746,7 +1746,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -1754,7 +1754,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -1762,7 +1762,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -1778,7 +1778,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -1786,7 +1786,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -1794,7 +1794,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180">
@@ -1802,7 +1802,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
@@ -1810,7 +1810,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182">
@@ -1818,7 +1818,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -1826,7 +1826,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>117</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -1834,7 +1834,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -1842,7 +1842,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
@@ -1850,7 +1850,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -1858,7 +1858,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
@@ -1866,7 +1866,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189">
@@ -1874,7 +1874,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190">
@@ -1882,7 +1882,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191">
@@ -1890,7 +1890,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192">
@@ -1898,7 +1898,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
@@ -1906,7 +1906,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -1914,7 +1914,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -1922,7 +1922,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -1930,7 +1930,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197">
@@ -1938,7 +1938,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
@@ -1946,7 +1946,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -1954,7 +1954,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -1962,7 +1962,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
@@ -1970,7 +1970,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -1978,7 +1978,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -1986,7 +1986,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204">
@@ -1994,7 +1994,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -2002,7 +2002,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206">
@@ -2010,7 +2010,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207">
@@ -2018,7 +2018,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="208">
@@ -2026,7 +2026,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>326</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209">
@@ -2034,7 +2034,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>56</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210">
@@ -2042,7 +2042,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211">
@@ -2050,7 +2050,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>13</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212">
@@ -2058,7 +2058,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>19</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213">
@@ -2066,7 +2066,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214">
@@ -2074,7 +2074,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215">
@@ -2082,7 +2082,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216">
@@ -2090,7 +2090,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217">
@@ -2098,7 +2098,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>8</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218">
@@ -2106,7 +2106,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="219">
@@ -2114,7 +2114,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>17</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220">
@@ -2122,7 +2122,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
@@ -2130,7 +2130,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>480</v>
       </c>
     </row>
     <row r="222">
@@ -2138,7 +2138,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223">
@@ -2146,7 +2146,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
@@ -2154,7 +2154,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225">
@@ -2162,7 +2162,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226">
@@ -2178,7 +2178,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -2186,7 +2186,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="229">
@@ -2194,7 +2194,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230">
@@ -2202,7 +2202,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231">
@@ -2210,7 +2210,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232">
@@ -2218,7 +2218,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233">
@@ -2226,7 +2226,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
     <row r="234">
@@ -2234,7 +2234,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235">
@@ -2242,7 +2242,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
@@ -2250,7 +2250,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -2258,7 +2258,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="238">
@@ -2266,7 +2266,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>8</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239">
@@ -2274,7 +2274,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
@@ -2282,7 +2282,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
@@ -2290,7 +2290,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>276</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -2298,7 +2298,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>20</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="243">
@@ -2306,7 +2306,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -2314,7 +2314,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
@@ -2322,7 +2322,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246">
@@ -2330,7 +2330,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -2338,7 +2338,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -2346,7 +2346,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249">
@@ -2354,7 +2354,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>61</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="250">
@@ -2362,7 +2362,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>60</v>
+        <v>848</v>
       </c>
     </row>
     <row r="251">
@@ -2370,7 +2370,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>570</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -2378,7 +2378,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -2386,7 +2386,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254">
@@ -2394,7 +2394,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255">
@@ -2402,7 +2402,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>407</v>
       </c>
     </row>
     <row r="256">
@@ -2418,7 +2418,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
@@ -2426,7 +2426,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="259">
@@ -2434,7 +2434,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="260">
@@ -2442,7 +2442,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261">
@@ -2450,7 +2450,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="262">
@@ -2458,7 +2458,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -2474,7 +2474,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -2482,7 +2482,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -2490,7 +2490,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267">
@@ -2498,7 +2498,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
@@ -2506,7 +2506,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -2514,7 +2514,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>274</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270">
@@ -2522,7 +2522,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
@@ -2530,7 +2530,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -2538,7 +2538,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>96</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273">
@@ -2546,7 +2546,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>112</v>
+        <v>961</v>
       </c>
     </row>
     <row r="274">
@@ -2554,7 +2554,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>50</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="275">
@@ -2562,7 +2562,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
@@ -2570,7 +2570,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
@@ -2578,7 +2578,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="278">
@@ -2586,7 +2586,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279">
@@ -2594,7 +2594,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280">
@@ -2602,7 +2602,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281">
@@ -2610,7 +2610,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
@@ -2618,7 +2618,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -2626,7 +2626,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284">
@@ -2634,7 +2634,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="285">
@@ -2642,7 +2642,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286">
@@ -2650,7 +2650,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287">
@@ -2658,7 +2658,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288">
@@ -2666,7 +2666,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
@@ -2674,7 +2674,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -2682,7 +2682,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
@@ -2690,7 +2690,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="292">
@@ -2698,7 +2698,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>400</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="293">
@@ -2706,7 +2706,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
     </row>
     <row r="294">
@@ -2714,7 +2714,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -2722,7 +2722,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>253</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296">
@@ -2730,7 +2730,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="297">
@@ -2738,7 +2738,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298">
@@ -2746,7 +2746,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299">
@@ -2754,7 +2754,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="300">
@@ -2762,7 +2762,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301">
@@ -2770,7 +2770,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302">
@@ -2778,7 +2778,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>11</v>
+        <v>274</v>
       </c>
     </row>
     <row r="303">
@@ -2786,7 +2786,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>7</v>
+        <v>531</v>
       </c>
     </row>
     <row r="304">
@@ -2794,7 +2794,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
@@ -2802,7 +2802,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>357</v>
+        <v>476</v>
       </c>
     </row>
     <row r="306">
@@ -2810,7 +2810,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="307">
@@ -2818,7 +2818,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
     </row>
     <row r="308">
@@ -2826,7 +2826,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="309">
@@ -2834,7 +2834,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310">
@@ -2842,7 +2842,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>393</v>
+        <v>50</v>
       </c>
     </row>
     <row r="311">
@@ -2850,7 +2850,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>6</v>
+        <v>459</v>
       </c>
     </row>
     <row r="312">
@@ -2858,7 +2858,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>10</v>
+        <v>322</v>
       </c>
     </row>
     <row r="313">
@@ -2866,7 +2866,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2307</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -2874,7 +2874,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315">
@@ -2882,7 +2882,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>322</v>
+        <v>36</v>
       </c>
     </row>
     <row r="316">
@@ -2890,7 +2890,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="317">
@@ -2898,7 +2898,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="318">
@@ -2906,7 +2906,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319">
@@ -2914,7 +2914,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
@@ -2922,7 +2922,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321">
@@ -2930,7 +2930,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322">
@@ -2938,7 +2938,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
@@ -2946,7 +2946,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -2954,7 +2954,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="325">
@@ -2962,7 +2962,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
@@ -2970,7 +2970,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327">
@@ -2978,7 +2978,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328">
@@ -2986,7 +2986,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329">
@@ -2994,7 +2994,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330">
@@ -3002,7 +3002,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="331">
@@ -3010,7 +3010,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -3018,7 +3018,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="333">
@@ -3026,7 +3026,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334">
@@ -3034,7 +3034,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
@@ -3042,7 +3042,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="336">
@@ -3050,7 +3050,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337">
@@ -3058,7 +3058,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338">
@@ -3066,7 +3066,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339">
@@ -3074,7 +3074,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -3082,7 +3082,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341">
@@ -3090,7 +3090,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342">
@@ -3098,7 +3098,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3106,7 +3106,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="344">
@@ -3114,7 +3114,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345">
@@ -3122,7 +3122,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346">
@@ -3130,7 +3130,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="347">
@@ -3138,7 +3138,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348">
@@ -3146,7 +3146,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3154,7 +3154,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3162,7 +3162,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351">
@@ -3170,7 +3170,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352">
@@ -3178,7 +3178,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353">
@@ -3186,7 +3186,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3194,7 +3194,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -3202,7 +3202,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -3210,7 +3210,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -3218,7 +3218,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
@@ -3226,7 +3226,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>152</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -3234,7 +3234,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>268</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360">
@@ -3242,7 +3242,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -3250,7 +3250,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362">
@@ -3258,7 +3258,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363">
@@ -3266,7 +3266,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364">
@@ -3274,7 +3274,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
@@ -3282,7 +3282,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366">
@@ -3290,7 +3290,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="367">
@@ -3298,7 +3298,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="368">
@@ -3306,7 +3306,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369">
@@ -3314,7 +3314,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370">
@@ -3322,7 +3322,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="371">
@@ -3330,7 +3330,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -3346,7 +3346,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>505</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374">
@@ -3354,7 +3354,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="375">
@@ -3362,7 +3362,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>824</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376">
@@ -3370,7 +3370,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -3378,7 +3378,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1020</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378">
@@ -3386,7 +3386,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -3394,7 +3394,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380">
@@ -3402,7 +3402,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>315</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381">
@@ -3410,7 +3410,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -3418,7 +3418,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2780</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383">
@@ -3426,7 +3426,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -3434,7 +3434,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385">
@@ -3442,7 +3442,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -3450,7 +3450,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>476</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -3458,7 +3458,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388">
@@ -3466,7 +3466,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389">
@@ -3474,7 +3474,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -3482,7 +3482,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391">
@@ -3490,7 +3490,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392">
@@ -3498,7 +3498,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="393">
@@ -3506,7 +3506,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394">
@@ -3514,7 +3514,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -3530,7 +3530,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>961</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397">
@@ -3538,7 +3538,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1072</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -3546,7 +3546,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="399">
@@ -3554,7 +3554,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400">
@@ -3562,7 +3562,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="401">
@@ -3570,7 +3570,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1631</v>
+        <v>21</v>
       </c>
     </row>
     <row r="402">
@@ -3578,7 +3578,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="403">
@@ -3586,7 +3586,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -3594,7 +3594,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405">
@@ -3602,7 +3602,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>2153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="406">
@@ -3610,7 +3610,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -3618,7 +3618,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
     </row>
     <row r="408">
@@ -3626,7 +3626,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="409">
@@ -3634,7 +3634,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="410">
@@ -3642,7 +3642,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411">
@@ -3650,7 +3650,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
@@ -3658,7 +3658,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="413">
@@ -3666,7 +3666,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414">
@@ -3674,7 +3674,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="415">
@@ -3682,7 +3682,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416">
@@ -3690,7 +3690,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417">
@@ -3698,7 +3698,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418">
@@ -3706,7 +3706,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419">
@@ -3714,7 +3714,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -3722,7 +3722,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="421">
@@ -3730,7 +3730,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -3738,7 +3738,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -3746,7 +3746,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424">
@@ -3754,7 +3754,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
     </row>
     <row r="425">
@@ -3762,7 +3762,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426">
@@ -3770,7 +3770,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -3778,7 +3778,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="428">
@@ -3786,7 +3786,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429">
@@ -3794,7 +3794,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="430">
@@ -3802,7 +3802,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431">
@@ -3810,7 +3810,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432">
@@ -3818,7 +3818,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="433">
@@ -3826,7 +3826,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -3834,7 +3834,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="435">
@@ -3842,7 +3842,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>178</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -3850,7 +3850,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437">
@@ -3866,7 +3866,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="439">
@@ -3874,7 +3874,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440">
@@ -3882,7 +3882,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="441">
@@ -3890,7 +3890,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442">
@@ -3898,7 +3898,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -3906,7 +3906,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="444">
@@ -3914,7 +3914,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -3922,7 +3922,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="446">
@@ -3930,7 +3930,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="447">
@@ -3938,7 +3938,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="448">
@@ -3946,7 +3946,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -3954,7 +3954,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="450">
@@ -3962,7 +3962,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="451">
@@ -3970,7 +3970,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="452">
@@ -3978,7 +3978,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="453">
@@ -3986,7 +3986,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454">
@@ -3994,7 +3994,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -4002,7 +4002,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="456">
@@ -4010,7 +4010,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="457">
@@ -4018,7 +4018,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458">
@@ -4034,7 +4034,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -4042,7 +4042,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461">
@@ -4050,7 +4050,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -4058,7 +4058,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -4066,7 +4066,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -4074,7 +4074,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="465">
@@ -4082,7 +4082,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466">
@@ -4090,7 +4090,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467">
@@ -4106,7 +4106,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="469">
@@ -4114,7 +4114,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="470">
@@ -4122,7 +4122,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471">
@@ -4130,7 +4130,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -4138,7 +4138,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -4146,7 +4146,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="474">
@@ -4154,7 +4154,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475">
@@ -4162,7 +4162,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="476">
@@ -4170,7 +4170,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477">
@@ -4178,7 +4178,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478">
@@ -4186,7 +4186,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -4194,7 +4194,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -4202,7 +4202,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481">
@@ -4210,7 +4210,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -4218,7 +4218,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -4234,7 +4234,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -4242,7 +4242,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="486">
@@ -4250,7 +4250,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487">
@@ -4258,7 +4258,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="488">
@@ -4266,7 +4266,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
@@ -4274,7 +4274,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490">
@@ -4282,7 +4282,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -4290,7 +4290,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -4298,7 +4298,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="493">
@@ -4306,7 +4306,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -4314,7 +4314,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="495">
@@ -4322,7 +4322,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496">
@@ -4330,7 +4330,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="497">
@@ -4338,7 +4338,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -4346,7 +4346,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -4354,7 +4354,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -4362,7 +4362,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
@@ -4370,7 +4370,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502">
@@ -4378,7 +4378,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -4386,7 +4386,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -4394,7 +4394,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="505">
@@ -4402,7 +4402,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="506">
@@ -4410,7 +4410,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="507">
@@ -4418,7 +4418,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508">
@@ -4426,7 +4426,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509">
@@ -4434,7 +4434,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510">
@@ -4442,7 +4442,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -4450,7 +4450,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="512">
@@ -4458,7 +4458,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513">
@@ -4466,7 +4466,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>2785</v>
+        <v>42</v>
       </c>
     </row>
     <row r="514">
@@ -4474,7 +4474,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -4482,7 +4482,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>364</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516">
@@ -4490,7 +4490,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>265</v>
+        <v>25</v>
       </c>
     </row>
     <row r="517">
@@ -4498,7 +4498,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518">
@@ -4506,7 +4506,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>142</v>
+        <v>24</v>
       </c>
     </row>
     <row r="519">
@@ -4514,7 +4514,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="520">
@@ -4522,7 +4522,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="521">
@@ -4530,7 +4530,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="522">
@@ -4538,7 +4538,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523">
@@ -4546,7 +4546,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -4554,7 +4554,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525">
@@ -4562,7 +4562,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -4570,7 +4570,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -4578,7 +4578,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -4586,7 +4586,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529">
@@ -4594,7 +4594,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -4602,7 +4602,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -4610,7 +4610,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532">
@@ -4618,7 +4618,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -4634,7 +4634,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="535">
@@ -4642,7 +4642,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -4650,7 +4650,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537">
@@ -4658,7 +4658,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="538">
@@ -4666,7 +4666,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -4674,7 +4674,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -4682,7 +4682,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="541">
@@ -4690,7 +4690,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542">
@@ -4698,7 +4698,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="543">
@@ -4706,7 +4706,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>15</v>
+        <v>233</v>
       </c>
     </row>
     <row r="544">
@@ -4714,7 +4714,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="545">
@@ -4722,7 +4722,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="546">
@@ -4730,7 +4730,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="547">
@@ -4738,7 +4738,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="548">
@@ -4746,7 +4746,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="549">
@@ -4754,7 +4754,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -4762,7 +4762,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="551">
@@ -4770,7 +4770,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="552">
@@ -4778,7 +4778,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="553">
@@ -4786,7 +4786,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="554">
@@ -4794,7 +4794,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="555">
@@ -4802,7 +4802,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>7</v>
+        <v>659</v>
       </c>
     </row>
     <row r="556">
@@ -4810,7 +4810,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="557">
@@ -4818,7 +4818,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="558">
@@ -4826,7 +4826,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
     </row>
     <row r="559">
@@ -4834,7 +4834,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
     </row>
     <row r="560">
@@ -4842,7 +4842,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -4850,7 +4850,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -4858,7 +4858,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -4866,7 +4866,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -4874,7 +4874,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565">
@@ -4882,7 +4882,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="566">
@@ -4898,7 +4898,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="568">
@@ -4906,7 +4906,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569">
@@ -4914,7 +4914,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570">
@@ -4922,7 +4922,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="571">
@@ -4930,7 +4930,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -4938,7 +4938,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="573">
@@ -4946,7 +4946,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574">
@@ -4954,7 +4954,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="575">
@@ -4962,7 +4962,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="576">
@@ -4970,7 +4970,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577">
@@ -4978,7 +4978,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578">
@@ -4986,7 +4986,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
     </row>
     <row r="579">
@@ -4994,7 +4994,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="580">
@@ -5002,7 +5002,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="581">
@@ -5010,7 +5010,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="582">
@@ -5018,7 +5018,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="583">
@@ -5026,7 +5026,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="584">
@@ -5034,7 +5034,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="585">
@@ -5042,7 +5042,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="586">
@@ -5050,7 +5050,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="587">
@@ -5058,7 +5058,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="588">
@@ -5066,7 +5066,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>19</v>
+        <v>165</v>
       </c>
     </row>
     <row r="589">
@@ -5074,7 +5074,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -5082,7 +5082,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="591">
@@ -5090,7 +5090,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="592">
@@ -5098,7 +5098,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>354</v>
       </c>
     </row>
     <row r="593">
@@ -5106,7 +5106,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594">
@@ -5114,7 +5114,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>407</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595">
@@ -5122,7 +5122,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="596">
@@ -5130,7 +5130,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>22</v>
+        <v>437</v>
       </c>
     </row>
     <row r="597">
@@ -5138,7 +5138,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>8</v>
+        <v>597</v>
       </c>
     </row>
     <row r="598">
@@ -5146,7 +5146,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -5154,7 +5154,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600">
@@ -5162,7 +5162,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="601">
@@ -5170,7 +5170,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="602">
@@ -5178,7 +5178,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="603">
@@ -5186,7 +5186,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="604">
@@ -5194,7 +5194,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="605">
@@ -5202,7 +5202,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="606">
@@ -5210,7 +5210,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -5218,7 +5218,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -5226,7 +5226,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -5234,7 +5234,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="610">
@@ -5242,7 +5242,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -5250,7 +5250,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612">
@@ -5258,7 +5258,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="613">
@@ -5266,7 +5266,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="614">
@@ -5274,7 +5274,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>22</v>
+        <v>700</v>
       </c>
     </row>
     <row r="615">
@@ -5282,7 +5282,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="616">
@@ -5290,7 +5290,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="617">
@@ -5298,7 +5298,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>203</v>
       </c>
     </row>
     <row r="618">
@@ -5314,7 +5314,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>10</v>
+        <v>164</v>
       </c>
     </row>
     <row r="620">
@@ -5322,7 +5322,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="621">
@@ -5330,7 +5330,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="622">
@@ -5338,7 +5338,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>2</v>
+        <v>413</v>
       </c>
     </row>
     <row r="623">
@@ -5346,7 +5346,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="624">
@@ -5354,7 +5354,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="625">
@@ -5362,7 +5362,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="626">
@@ -5370,7 +5370,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="627">
@@ -5378,7 +5378,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="628">
@@ -5386,7 +5386,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="629">
@@ -5394,7 +5394,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
     <row r="630">
@@ -5402,7 +5402,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="631">
@@ -5410,7 +5410,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="632">
@@ -5418,7 +5418,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="633">
@@ -5426,7 +5426,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="634">
@@ -5434,7 +5434,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="635">
@@ -5442,7 +5442,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="636">
@@ -5450,7 +5450,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="637">
@@ -5458,7 +5458,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="638">
@@ -5466,7 +5466,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="639">
@@ -5474,7 +5474,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="640">
@@ -5482,7 +5482,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -5490,7 +5490,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>7</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="642">
@@ -5498,7 +5498,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>50</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="643">
@@ -5506,7 +5506,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="644">
@@ -5514,7 +5514,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -5522,7 +5522,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="646">
@@ -5530,7 +5530,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="647">
@@ -5538,7 +5538,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648">
@@ -5546,7 +5546,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="649">
@@ -5554,7 +5554,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -5562,7 +5562,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="651">
@@ -5570,7 +5570,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="652">
@@ -5586,7 +5586,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="654">
@@ -5594,7 +5594,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="655">
@@ -5602,7 +5602,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="656">
@@ -5610,7 +5610,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="657">
@@ -5618,7 +5618,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="658">
@@ -5626,7 +5626,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659">
@@ -5634,7 +5634,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660">
@@ -5650,7 +5650,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="662">
@@ -5658,7 +5658,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="663">
@@ -5666,7 +5666,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -5674,7 +5674,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="665">
@@ -5682,7 +5682,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
     </row>
     <row r="666">
@@ -5690,7 +5690,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="667">
@@ -5698,7 +5698,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="668">
@@ -5706,7 +5706,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="669">
@@ -5714,10 +5714,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/Avistamientos/Excels/dfAvistamientos.xlsx
+++ b/src/Avistamientos/Excels/dfAvistamientos.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Avistamientos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +57,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +76,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,5371 +373,5363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B669"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Avistamientos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>43</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>43</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>4</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>50</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>11</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>11</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>50</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>7</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>12</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>16</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>17</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>16</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>12</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>17</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>3</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>60</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>70</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>30</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>8</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>18</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>5</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>61</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>10</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>21</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>10</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>10</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>30</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>30</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>357</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>505</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>435</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>400</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>30</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>35</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>471</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>320</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>151</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>1021</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>27</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>176</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>21</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>824</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>81</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>61</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>98</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>276</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>60</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>21</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>393</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>1020</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>6</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>4</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>200</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>253</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>315</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>570</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>13</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>10</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>3</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>100</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>12</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>11</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>5</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>4</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>10</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>25</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>24</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>6</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>7</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>3</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>2</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>35</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>27</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>70</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>4</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>7</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>12</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>72</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>96</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>2150</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>50</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>8</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>6</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>7</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>31</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>14</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>20</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>16</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>21</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>151</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>29</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>6</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>4</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>3</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>7</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>22</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>100</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>4</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>163</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>4</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>30</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>94</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>87</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>3</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>220</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>6</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>2</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>4</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>8</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>54</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>21</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>28</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>15</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>3</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>15</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>23</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>5</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>101</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>60</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>48</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>85</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>13</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>4</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>2</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>10</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>50</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>15</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>14</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>6</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>8</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>5</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>11</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>10</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>90</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>178</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>2785</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>200</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>250</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>57</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>215</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>300</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>500</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>200</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>300</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>100</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>364</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>120</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>500</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>20</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>480</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>130</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>40</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>265</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>60</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>30</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>20</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>51</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>59</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>80</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>80</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>142</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>200</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>100</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>8</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>2</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>152</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>472</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>90</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>9</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>32</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>2780</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>5</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>5</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>45</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>20</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>2</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>42</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>2307</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>848</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>7</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>14</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>40</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>16</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>407</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>22</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>30</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>51</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>195</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>268</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>118</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>3</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>30</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>10</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>3</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>60</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>5</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>14</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>59</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>27</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>18</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>550</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>961</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>2153</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>5</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>10</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>49</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>21</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>19</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>22</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>8</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>326</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1631</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>100</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>8</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>15</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>18</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>2</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>4</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>56</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1072</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>400</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>2</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>52</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>200</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>31</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>90</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>35</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>11</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>95</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>274</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>531</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>60</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>476</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>70</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>250</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>130</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>25</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>50</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>459</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>322</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>2</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>30</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>36</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>300</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>130</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>20</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>5</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>30</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>15</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>6</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>10</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>40</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>4</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>6</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>30</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>50</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>6</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>25</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>3</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>70</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>25</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>4</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>24</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>8</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>6</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>26</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>2</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>12</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>7</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>94</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>4</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>7</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>38</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>17</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>6</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>6</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>16</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>2</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>3</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>4</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>3</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>7</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>15</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>6</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>9</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>6</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>111</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>73</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>117</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>15</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>13</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>27</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>2</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>50</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>42</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>19</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>3</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>15</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>2</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>9</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>8</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>6</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>17</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>10</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>18</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>20</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>3</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>6</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>30</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>80</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>7</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>2</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>3</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>6</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>2</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>21</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>18</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>80</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>21</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>36</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>4</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>5</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>19</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>2</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>30</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>12</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>12</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>12</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>4</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>44</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>9</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>77</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>4</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>5</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>20</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>4</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>3</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>96</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>8</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>85</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>15</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>2</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>44</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>7</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>112</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>4</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>7</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>46</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>3</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>45</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>3</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>12</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>11</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>16</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>16</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>10</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>9</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>23</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>87</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>110</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>2</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>124</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>50</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>70</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>58</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>20</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>2</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>64</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>37</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>8</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>4</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>2</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>7</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>2</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>3</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>34</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>8</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>6</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>32</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>26</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>4</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>3</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>67</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>8</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>50</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>25</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>12</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>4</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>2</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>10</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>10</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>13</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>4</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>25</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>5</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>10</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>3</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>2</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>50</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>21</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>8</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>5</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>3</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>2</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>15</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>17</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" t="n">
+      <c r="B502">
         <v>15</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" t="n">
+      <c r="B503">
         <v>2</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" t="n">
+      <c r="B504">
         <v>22</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" t="n">
+      <c r="B505">
         <v>37</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" t="n">
+      <c r="B506">
         <v>5</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" t="n">
+      <c r="B507">
         <v>4</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" t="n">
+      <c r="B508">
         <v>4</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" t="n">
+      <c r="B509">
         <v>5</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" t="n">
+      <c r="B511">
         <v>17</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" t="n">
+      <c r="B512">
         <v>4</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" t="n">
+      <c r="B513">
         <v>42</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" t="n">
+      <c r="B514">
         <v>3</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" t="n">
+      <c r="B515">
         <v>7</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" t="n">
+      <c r="B516">
         <v>25</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" t="n">
+      <c r="B517">
         <v>6</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" t="n">
+      <c r="B518">
         <v>24</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" t="n">
+      <c r="B519">
         <v>20</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" t="n">
+      <c r="B520">
         <v>9</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" t="n">
+      <c r="B521">
         <v>5</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" t="n">
+      <c r="B522">
         <v>4</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" t="n">
+      <c r="B523">
         <v>2</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" t="n">
+      <c r="B524">
         <v>5</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" t="n">
+      <c r="B525">
         <v>2</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" t="n">
+      <c r="B526">
         <v>3</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" t="n">
+      <c r="B527">
         <v>3</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" t="n">
+      <c r="B528">
         <v>5</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" t="n">
+      <c r="B529">
         <v>2</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" t="n">
+      <c r="B530">
         <v>2</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" t="n">
+      <c r="B531">
         <v>20</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" t="n">
+      <c r="B532">
         <v>2</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" t="n">
+      <c r="B533">
         <v>5</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" t="n">
+      <c r="B534">
         <v>15</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536" t="n">
+      <c r="B536">
         <v>12</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537" t="n">
+      <c r="B537">
         <v>12</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
+      <c r="B539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540" t="n">
+      <c r="B540">
         <v>78</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" t="n">
+      <c r="B541">
         <v>4</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542" t="n">
+      <c r="B542">
         <v>15</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543" t="n">
+      <c r="B543">
         <v>233</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544" t="n">
+      <c r="B544">
         <v>58</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B545" t="n">
+      <c r="B545">
         <v>700</v>
       </c>
     </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B546" t="n">
+      <c r="B546">
         <v>13</v>
       </c>
     </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547" t="n">
+      <c r="B547">
         <v>30</v>
       </c>
     </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548" t="n">
+      <c r="B548">
         <v>30</v>
       </c>
     </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
+      <c r="B549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B550" t="n">
+      <c r="B550">
         <v>30</v>
       </c>
     </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B551" t="n">
+      <c r="B551">
         <v>50</v>
       </c>
     </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B552" t="n">
+      <c r="B552">
         <v>55</v>
       </c>
     </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B553" t="n">
+      <c r="B553">
         <v>32</v>
       </c>
     </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554" t="n">
+      <c r="B554">
         <v>14</v>
       </c>
     </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555" t="n">
+      <c r="B555">
         <v>659</v>
       </c>
     </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556" t="n">
+      <c r="B556">
         <v>40</v>
       </c>
     </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557" t="n">
+      <c r="B557">
         <v>29</v>
       </c>
     </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558" t="n">
+      <c r="B558">
         <v>160</v>
       </c>
     </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B559" t="n">
+      <c r="B559">
         <v>38</v>
       </c>
     </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
+      <c r="B561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B563" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B564" t="n">
+      <c r="B564">
         <v>5</v>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B565" t="n">
+      <c r="B565">
         <v>18</v>
       </c>
     </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B566" t="n">
+      <c r="B566">
         <v>17</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B567" t="n">
+      <c r="B567">
         <v>15</v>
       </c>
     </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568" t="n">
+      <c r="B568">
         <v>8</v>
       </c>
     </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569" t="n">
+      <c r="B569">
         <v>10</v>
       </c>
     </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570" t="n">
+      <c r="B570">
         <v>51</v>
       </c>
     </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B572" t="n">
+      <c r="B572">
         <v>110</v>
       </c>
     </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B573" t="n">
+      <c r="B573">
         <v>6</v>
       </c>
     </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B574" t="n">
+      <c r="B574">
         <v>50</v>
       </c>
     </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B575" t="n">
+      <c r="B575">
         <v>20</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B576" t="n">
+      <c r="B576">
         <v>6</v>
       </c>
     </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" t="n">
+      <c r="B577">
         <v>15</v>
       </c>
     </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" t="n">
+      <c r="B578">
         <v>100</v>
       </c>
     </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" t="n">
+      <c r="B579">
         <v>50</v>
       </c>
     </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" t="n">
+      <c r="B580">
         <v>20</v>
       </c>
     </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B581" t="n">
+      <c r="B581">
         <v>20</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B582" t="n">
+      <c r="B582">
         <v>50</v>
       </c>
     </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B583" t="n">
+      <c r="B583">
         <v>50</v>
       </c>
     </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B584" t="n">
+      <c r="B584">
         <v>120</v>
       </c>
     </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B585" t="n">
+      <c r="B585">
         <v>32</v>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" t="n">
+      <c r="B586">
         <v>100</v>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" t="n">
+      <c r="B587">
         <v>100</v>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" t="n">
+      <c r="B588">
         <v>165</v>
       </c>
     </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" t="n">
+      <c r="B589">
         <v>3</v>
       </c>
     </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B590" t="n">
+      <c r="B590">
         <v>18</v>
       </c>
     </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B591" t="n">
+      <c r="B591">
         <v>130</v>
       </c>
     </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B592" t="n">
+      <c r="B592">
         <v>354</v>
       </c>
     </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B593" t="n">
+      <c r="B593">
         <v>16</v>
       </c>
     </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B594" t="n">
+      <c r="B594">
         <v>7</v>
       </c>
     </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B595" t="n">
+      <c r="B595">
         <v>54</v>
       </c>
     </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B596" t="n">
+      <c r="B596">
         <v>437</v>
       </c>
     </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B597" t="n">
+      <c r="B597">
         <v>597</v>
       </c>
     </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B598" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
+      <c r="B598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B599" t="n">
+      <c r="B599">
         <v>3</v>
       </c>
     </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B600" t="n">
+      <c r="B600">
         <v>48</v>
       </c>
     </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B601" t="n">
+      <c r="B601">
         <v>109</v>
       </c>
     </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B602" t="n">
+      <c r="B602">
         <v>105</v>
       </c>
     </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B603" t="n">
+      <c r="B603">
         <v>4</v>
       </c>
     </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B604" t="n">
+      <c r="B604">
         <v>25</v>
       </c>
     </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B605" t="n">
+      <c r="B605">
         <v>46</v>
       </c>
     </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B606" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
+      <c r="B606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B607" t="n">
+      <c r="B607">
         <v>3</v>
       </c>
     </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B608" t="n">
+      <c r="B608">
         <v>2</v>
       </c>
     </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B609" t="n">
+      <c r="B609">
         <v>20</v>
       </c>
     </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B610" t="n">
+      <c r="B610">
         <v>3</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B611" t="n">
+      <c r="B611">
         <v>7</v>
       </c>
     </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B612" t="n">
+      <c r="B612">
         <v>30</v>
       </c>
     </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B613" t="n">
+      <c r="B613">
         <v>61</v>
       </c>
     </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B614" t="n">
+      <c r="B614">
         <v>700</v>
       </c>
     </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B615" t="n">
+      <c r="B615">
         <v>72</v>
       </c>
     </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B616" t="n">
+      <c r="B616">
         <v>63</v>
       </c>
     </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B617" t="n">
+      <c r="B617">
         <v>203</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B618" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
+      <c r="B618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B619" t="n">
+      <c r="B619">
         <v>164</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B620" t="n">
+      <c r="B620">
         <v>12</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B621" t="n">
+      <c r="B621">
         <v>178</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B622" t="n">
+      <c r="B622">
         <v>413</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B623" t="n">
+      <c r="B623">
         <v>500</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B624" t="n">
+      <c r="B624">
         <v>13</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B625" t="n">
+      <c r="B625">
         <v>27</v>
       </c>
     </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B626" t="n">
+      <c r="B626">
         <v>7000</v>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B627" t="n">
+      <c r="B627">
         <v>19</v>
       </c>
     </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B628" t="n">
+      <c r="B628">
         <v>5</v>
       </c>
     </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B629" t="n">
+      <c r="B629">
         <v>125</v>
       </c>
     </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B630" t="n">
+      <c r="B630">
         <v>100</v>
       </c>
     </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B631" t="n">
+      <c r="B631">
         <v>5</v>
       </c>
     </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632" t="n">
+      <c r="B632">
         <v>8</v>
       </c>
     </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B633" t="n">
+      <c r="B633">
         <v>12</v>
       </c>
     </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B634" t="n">
+      <c r="B634">
         <v>45</v>
       </c>
     </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B635" t="n">
+      <c r="B635">
         <v>8</v>
       </c>
     </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B636" t="n">
+      <c r="B636">
         <v>17</v>
       </c>
     </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B637" t="n">
+      <c r="B637">
         <v>30</v>
       </c>
     </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B638" t="n">
+      <c r="B638">
         <v>73</v>
       </c>
     </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B639" t="n">
+      <c r="B639">
         <v>8</v>
       </c>
     </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B640" t="n">
+      <c r="B640">
         <v>3</v>
       </c>
     </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B641" t="n">
+      <c r="B641">
         <v>1050</v>
       </c>
     </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B642" t="n">
+      <c r="B642">
         <v>1200</v>
       </c>
     </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B643" t="n">
+      <c r="B643">
         <v>30</v>
       </c>
     </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
         <v>642</v>
       </c>
-      <c r="B644" t="n">
+      <c r="B644">
         <v>3</v>
       </c>
     </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
         <v>643</v>
       </c>
-      <c r="B645" t="n">
+      <c r="B645">
         <v>31</v>
       </c>
     </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
         <v>644</v>
       </c>
-      <c r="B646" t="n">
+      <c r="B646">
         <v>68</v>
       </c>
     </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
         <v>645</v>
       </c>
-      <c r="B647" t="n">
+      <c r="B647">
         <v>4</v>
       </c>
     </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
         <v>646</v>
       </c>
-      <c r="B648" t="n">
+      <c r="B648">
         <v>49</v>
       </c>
     </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
         <v>647</v>
       </c>
-      <c r="B649" t="n">
+      <c r="B649">
         <v>3</v>
       </c>
     </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
         <v>648</v>
       </c>
-      <c r="B650" t="n">
+      <c r="B650">
         <v>5</v>
       </c>
     </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
         <v>649</v>
       </c>
-      <c r="B651" t="n">
+      <c r="B651">
         <v>7</v>
       </c>
     </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
         <v>650</v>
       </c>
-      <c r="B652" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
+      <c r="B652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
         <v>651</v>
       </c>
-      <c r="B653" t="n">
+      <c r="B653">
         <v>6</v>
       </c>
     </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
         <v>652</v>
       </c>
-      <c r="B654" t="n">
+      <c r="B654">
         <v>50</v>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
         <v>653</v>
       </c>
-      <c r="B655" t="n">
+      <c r="B655">
         <v>25</v>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
         <v>654</v>
       </c>
-      <c r="B656" t="n">
+      <c r="B656">
         <v>200</v>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
         <v>655</v>
       </c>
-      <c r="B657" t="n">
+      <c r="B657">
         <v>200</v>
       </c>
     </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
         <v>656</v>
       </c>
-      <c r="B658" t="n">
+      <c r="B658">
         <v>2</v>
       </c>
     </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
         <v>657</v>
       </c>
-      <c r="B659" t="n">
+      <c r="B659">
         <v>3</v>
       </c>
     </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
         <v>658</v>
       </c>
-      <c r="B660" t="n">
+      <c r="B660">
         <v>5</v>
       </c>
     </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
         <v>659</v>
       </c>
-      <c r="B661" t="n">
+      <c r="B661">
         <v>30</v>
       </c>
     </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
         <v>660</v>
       </c>
-      <c r="B662" t="n">
+      <c r="B662">
         <v>8</v>
       </c>
     </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
         <v>661</v>
       </c>
-      <c r="B663" t="n">
+      <c r="B663">
         <v>3</v>
       </c>
     </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
         <v>662</v>
       </c>
-      <c r="B664" t="n">
+      <c r="B664">
         <v>20</v>
       </c>
     </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
         <v>663</v>
       </c>
-      <c r="B665" t="n">
+      <c r="B665">
         <v>700</v>
       </c>
     </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
         <v>664</v>
       </c>
-      <c r="B666" t="n">
+      <c r="B666">
         <v>5</v>
       </c>
     </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
         <v>665</v>
       </c>
-      <c r="B667" t="n">
+      <c r="B667">
         <v>15</v>
       </c>
     </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
         <v>666</v>
       </c>
-      <c r="B668" t="n">
+      <c r="B668">
         <v>33</v>
       </c>
     </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
         <v>667</v>
       </c>
-      <c r="B669" t="n">
+      <c r="B669">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>